--- a/Useful files/Задачи.xlsx
+++ b/Useful files/Задачи.xlsx
@@ -1,38 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/233ff03b8280f316/Рабочий стол/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11CD71FC-1058-4994-B159-D2C28A2049CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874F7107-F0DE-4D7F-8D49-849BFE2F36D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{08E66B02-90A5-4DBE-B310-89731172CFD8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{08E66B02-90A5-4DBE-B310-89731172CFD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>Ввести натуральные числа n и m, и напечатать период десятичной дроби m/n, если дробь конечна (до 50 знаков после запятой), то период = 0</t>
   </si>
@@ -131,13 +124,61 @@
   </si>
   <si>
     <t>есть файл в котором записан некоторый текст на английском языке. Требуется вывести в алфавитном порядке все буквы которые встречаются в файле. Каждую букву выводить только один раз.</t>
+  </si>
+  <si>
+    <t>Начальное условие задачи</t>
+  </si>
+  <si>
+    <t>Отредактированное условие</t>
+  </si>
+  <si>
+    <t>Пример входных и выходных данных</t>
+  </si>
+  <si>
+    <t>Теги</t>
+  </si>
+  <si>
+    <t>Входные данные:  1 5 2 7                                           Выходные данные: y = 2x + 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пользователь вводит координаты двух точек (x,y), через которые проходит прямая y = kx + b. Вывести это уравнение. Примечание: координаты точек - рациональные числа. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вычислить площадь и периметр фигур: треугольник (по данным трем сторонам), прямоугольник (по данным ширине и высоте), круг (по заданному радиусу). Длины сторон и радиус вводятся пользователем. </t>
+  </si>
+  <si>
+    <t>C, сложность F, 1 семестр, простые операторы</t>
+  </si>
+  <si>
+    <t>Вводятся три целых числа. Определить, может ли существовать треугольник с такими сторонами, и если да, то какой он: разносторонний, равнобедренный или равносторонний? Вывод: 0 - не существует, 1 - разносторонний, 2 - равнобедренный, 3 - равносторонний</t>
+  </si>
+  <si>
+    <t>C, сложность F, 1 семестр, условные операторы.</t>
+  </si>
+  <si>
+    <t>Напишите программу, в которой помимо функции main() были бы еще две функции: в одной вычислялся факториал переданного числа, в другой — находился n-ый элемент ряда Фибоначчи (n — параметр функции, натуральное число).</t>
+  </si>
+  <si>
+    <t>Пользователь вводит натуральное число n - количество элементов массива. Затем вводятся сами элементы. Вывести сумму четных элементов массива.</t>
+  </si>
+  <si>
+    <t>C, сложность E , 1 семестр, функции</t>
+  </si>
+  <si>
+    <t>C, сложность E, 1 семестр, массивы, циклы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пользователь вводит строку. Перевести ее в верхний регистр и вывести. </t>
+  </si>
+  <si>
+    <t>C, сложность D, 1 семестр, строки</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +195,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -163,10 +213,67 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -175,12 +282,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -497,262 +616,485 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB57B17-6A15-45A5-8FFE-C15181C6CFB2}">
-  <dimension ref="A1:A60"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.7265625" customWidth="1"/>
+    <col min="1" max="1" width="64.7109375" customWidth="1"/>
+    <col min="2" max="2" width="74.7109375" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="62.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:4" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" ht="91" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4" ht="90.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="102.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:4" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="1"/>
-    </row>
-    <row r="57" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="1"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+    </row>
+    <row r="43" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+    </row>
+    <row r="46" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+    </row>
+    <row r="49" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+    </row>
+    <row r="50" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+    </row>
+    <row r="51" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+    </row>
+    <row r="52" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+    </row>
+    <row r="53" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+    </row>
+    <row r="54" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+    </row>
+    <row r="55" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+    </row>
+    <row r="56" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+    </row>
+    <row r="57" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+    </row>
+    <row r="58" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+    </row>
+    <row r="59" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+    </row>
+    <row r="60" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+    </row>
+    <row r="61" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Useful files/Задачи.xlsx
+++ b/Useful files/Задачи.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dgleb\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874F7107-F0DE-4D7F-8D49-849BFE2F36D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C4191C-D2DB-4A2F-BEDA-1130A5F809A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{08E66B02-90A5-4DBE-B310-89731172CFD8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{08E66B02-90A5-4DBE-B310-89731172CFD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
-  <si>
-    <t>Ввести натуральные числа n и m, и напечатать период десятичной дроби m/n, если дробь конечна (до 50 знаков после запятой), то период = 0</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="98">
   <si>
     <t>Найти уравнение прямой, проходящей через две заданные пользователем точки координатной плоскости. Уравнение любой прямой имеет вид y = kx + b. Если известны две пары (x; y), то получают систему уравнений относительно коэффициентов k и b:</t>
   </si>
@@ -153,9 +150,6 @@
     <t>Вводятся три целых числа. Определить, может ли существовать треугольник с такими сторонами, и если да, то какой он: разносторонний, равнобедренный или равносторонний? Вывод: 0 - не существует, 1 - разносторонний, 2 - равнобедренный, 3 - равносторонний</t>
   </si>
   <si>
-    <t>C, сложность F, 1 семестр, условные операторы.</t>
-  </si>
-  <si>
     <t>Напишите программу, в которой помимо функции main() были бы еще две функции: в одной вычислялся факториал переданного числа, в другой — находился n-ый элемент ряда Фибоначчи (n — параметр функции, натуральное число).</t>
   </si>
   <si>
@@ -171,14 +165,246 @@
     <t xml:space="preserve">Пользователь вводит строку. Перевести ее в верхний регистр и вывести. </t>
   </si>
   <si>
-    <t>C, сложность D, 1 семестр, строки</t>
+    <t xml:space="preserve">Пользователь вводит два числа m и n - размер первой матрицы. Затем вводятся числа, которыми заполняются две матрицы. Найти произведение матриц. </t>
+  </si>
+  <si>
+    <t>Дана квадратная матрица 3х3. Пользователь заполняет ее числами. Найти определитель.</t>
+  </si>
+  <si>
+    <t>Пользователь вводит строку символов, состоящую из чисел. Преобразовать строку в соответствующее число и обратно.</t>
+  </si>
+  <si>
+    <t>Пользователь вводит натуральное число n. Разложить число в произведение простых множителей.</t>
+  </si>
+  <si>
+    <t>Дано натуральное число n. Перевести его в восьмеричную систему счисления.</t>
+  </si>
+  <si>
+    <t>Вводится пятизначное число. Необходимо вывести отдельно каждую цифру в новой строке.</t>
+  </si>
+  <si>
+    <t>Пользователь вводит натуральное число n - количество слагаемых и целое число k - степень. Найти алгебраическую сумму для выражения: 1^k + 2^k + 3^k + … + N^k.</t>
+  </si>
+  <si>
+    <t>Вводится натуральное число. Найти наибольшую и наименьшую цифру в числе.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вводятся 3 рациональных числа x,y,z - координаты вектора. Найти его длину. Ответ округлить до сотых. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вводятся координаты точки. Определить, в какой четверти она расположена. </t>
+  </si>
+  <si>
+    <t>Программа принимает пятизначное число. Определить, является ли введенное число палиндромом. Если да - вывести 1, если нет - 0.</t>
+  </si>
+  <si>
+    <t>Найти след квадратной матрицы. Размер матрицы NxN вводит пользователь, матрицу заполнять случайными числами.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Используя оператор цикла do while, составить программу, которая будет требовать ввод цифр с клавиатуры до тех пор, пока не будет введен 0. Вывести сумму введенных цифр. </t>
+  </si>
+  <si>
+    <r>
+      <t>Даны два уравнения линий:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> y = ax^2 + bx + c </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>и </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y = dx + k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Пользователь вводит числа a, b, c, d, k. Вывести координаты (x,y) точки/точек пересечения. Если линии не пересекаются, вывести 0. </t>
+    </r>
+  </si>
+  <si>
+    <t>Входные данные:  2 3 4                                      Выходные данные: 2.9047 9</t>
+  </si>
+  <si>
+    <t>Пользователь вводит натуральное число. Найти сумму и произведение его цифр.</t>
+  </si>
+  <si>
+    <t>Входные данные: 276                                            Выходные данные: 15 84</t>
+  </si>
+  <si>
+    <t>Входные данные:  3 4 5                                           Выходные данные: right triangle</t>
+  </si>
+  <si>
+    <t>Входные данные:  4 7                                           Выходные данные: 24 8</t>
+  </si>
+  <si>
+    <t>Входные данные:  5
+2 5 6 7 1
+Выходные данные: 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Входные данные:  2 3
+1 4 2 0 2 3
+0 1 2 0 4 3
+Выходные данные: 
+16 7
+16 9
+</t>
+  </si>
+  <si>
+    <t>Входные данные:  
+1 2 0
+4 3 -1
+-2 0 4
+Выходные данные: -16</t>
+  </si>
+  <si>
+    <t>Входные данные:  157                                           Выходные данные: 
+157
+157</t>
+  </si>
+  <si>
+    <t>Входные данные: 60
+Выходные данные: 2*2*3*5</t>
+  </si>
+  <si>
+    <t>Входные данные:  127                                           Выходные данные: 177</t>
+  </si>
+  <si>
+    <t>Входные данные:  abcdef                                           Выходные данные: ABCDEF</t>
+  </si>
+  <si>
+    <t>Входные данные:  15341                                          Выходные данные: 
+1
+5
+3
+4
+1</t>
+  </si>
+  <si>
+    <t>Входные данные:  3 3                                           Выходные данные: 36</t>
+  </si>
+  <si>
+    <t>Входные данные:  157693                                           Выходные данные: 9 1</t>
+  </si>
+  <si>
+    <t>Входные данные:  -2 4 -4                                           Выходные данные: 6</t>
+  </si>
+  <si>
+    <t>Входные данные:  3 -2                                           Выходные данные: 4</t>
+  </si>
+  <si>
+    <t>Входные данные:  
+5
+1
+Выходные данные:
+   *
+ ***
+*****
+ ***
+   *</t>
+  </si>
+  <si>
+    <t>Пользователь вводит нечетное число n &gt;= 3, затем вводится число, где  1 - *,2 -  +, 3 - #. Составить программу, которая будет печатать ромб выбранным значком. Выбор значков организовать оператором switch.</t>
+  </si>
+  <si>
+    <t>Входные данные:  1354531
+Выходные данные: 1</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Входные данные:  1 3 2 8 5 0                                          Выходные данные: 19</t>
+  </si>
+  <si>
+    <t>Входные данные:  1 2 3 1 5                                           Выходные данные: 
+1 6
+-2 3</t>
+  </si>
+  <si>
+    <t>С, сложность E, 1 семестр, простые операторы, циклы</t>
+  </si>
+  <si>
+    <t>C, сложность F, 1 семестр, условные операторы</t>
+  </si>
+  <si>
+    <t>С, сложность D, 1 семестр, массивы, циклы</t>
+  </si>
+  <si>
+    <t>С, сложность F, 1 семестр, циклы, строки</t>
+  </si>
+  <si>
+    <t>С, сложность E, 1 семестр, циклы, простые операторы</t>
+  </si>
+  <si>
+    <t>C, сложность E, 1 семестр, строки</t>
+  </si>
+  <si>
+    <t>С, сложность F, 1 семестр, циклы, простые операторы</t>
+  </si>
+  <si>
+    <t>С, сложность F, 1 семестр,  простые операторы</t>
+  </si>
+  <si>
+    <t>С, сложность E, 1 семестр, циклы, простые операторы, условные операторы</t>
+  </si>
+  <si>
+    <t>С, сложность F, 1 семестр, условные операторы, циклы</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С, сложность E, 1 семестр, циклы, массивы</t>
+  </si>
+  <si>
+    <t>С, сложность F, 1 семестр, условные операторы, циклы, массивы</t>
+  </si>
+  <si>
+    <t>C, сложность F, 1 семестр, циклы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">С, сложность E, 1 семестр, условные операторы </t>
+  </si>
+  <si>
+    <t>С, сложность E, 1 семестр, циклы, массивы</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +430,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -213,7 +448,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -239,31 +474,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -282,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -290,16 +501,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -616,485 +821,585 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB57B17-6A15-45A5-8FFE-C15181C6CFB2}">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="64.7109375" customWidth="1"/>
-    <col min="2" max="2" width="74.7109375" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" customWidth="1"/>
+    <col min="1" max="1" width="64.7265625" customWidth="1"/>
+    <col min="2" max="2" width="74.7265625" customWidth="1"/>
+    <col min="3" max="3" width="46.81640625" customWidth="1"/>
+    <col min="4" max="4" width="35.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="C5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="87.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="77" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="57.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="C13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="B14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="B15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="B17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="B18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="131" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="B19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="B20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="B21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="B22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="62.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:4" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="B23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="91" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:4" ht="90.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" ht="102.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:4" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-    </row>
-    <row r="32" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-    </row>
-    <row r="33" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-    </row>
-    <row r="42" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-    </row>
-    <row r="43" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-    </row>
-    <row r="46" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-    </row>
-    <row r="51" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-    </row>
-    <row r="52" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-    </row>
-    <row r="53" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-    </row>
-    <row r="54" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-    </row>
-    <row r="55" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-    </row>
-    <row r="56" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-    </row>
-    <row r="57" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-    </row>
-    <row r="58" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-    </row>
-    <row r="59" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-    </row>
-    <row r="60" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-    </row>
-    <row r="61" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="2"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="2"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="2"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="2"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="2"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="2"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="2"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="2"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="2"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="2"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="2"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="2"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="2"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="2"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="2"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="2"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="2"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="2"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="2"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="2"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="2"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+    </row>
+    <row r="55" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="2"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="2"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="2"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+    </row>
+    <row r="58" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="2"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+    </row>
+    <row r="59" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="2"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+    </row>
+    <row r="60" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="2"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Useful files/Задачи.xlsx
+++ b/Useful files/Задачи.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dgleb\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Проги\Practice\Useful files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C4191C-D2DB-4A2F-BEDA-1130A5F809A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55AD130-70B0-4C1E-881F-A00DDB104766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{08E66B02-90A5-4DBE-B310-89731172CFD8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="103">
   <si>
     <t>Найти уравнение прямой, проходящей через две заданные пользователем точки координатной плоскости. Уравнение любой прямой имеет вид y = kx + b. Если известны две пары (x; y), то получают систему уравнений относительно коэффициентов k и b:</t>
   </si>
@@ -398,6 +398,21 @@
   </si>
   <si>
     <t>С, сложность E, 1 семестр, циклы, массивы</t>
+  </si>
+  <si>
+    <t>В первой строчке пользователь вводит число n - размер массива. На следующей строчке вводятся элементы массива. Вывести все нечетные элементы массива.</t>
+  </si>
+  <si>
+    <t>Пользователь вводит строку. Найти наибольшее количество идущих подряд букв.</t>
+  </si>
+  <si>
+    <t>Пользователь вводит строку символов. Признак конца строки — символ '\n' (переход на новую строку). Строка состоит из слов, которые отделены друг от друга пробелами. Вывести самое длинное слово и его порядковый номер.</t>
+  </si>
+  <si>
+    <t>Пользователь вводит слова до тех пор, пока не будет введен символ "*". Найти самое короткое слово в строке.</t>
+  </si>
+  <si>
+    <t>Дан файл, в котором записан некоторый текст на английском языке. Требуется вывести в алфавитном порядке все буквы, которые встречаются в файле и их количество.</t>
   </si>
 </sst>
 </file>
@@ -823,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB57B17-6A15-45A5-8FFE-C15181C6CFB2}">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1195,7 +1210,9 @@
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="4"/>
+      <c r="B28" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
     </row>
@@ -1203,7 +1220,9 @@
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="4"/>
+      <c r="B29" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
     </row>
@@ -1211,7 +1230,9 @@
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="4"/>
+      <c r="B30" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
     </row>
@@ -1219,7 +1240,9 @@
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="4"/>
+      <c r="B31" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
     </row>
@@ -1227,7 +1250,9 @@
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="4"/>
+      <c r="B32" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
     </row>
@@ -1235,7 +1260,9 @@
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="4"/>
+      <c r="B33" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
     </row>
